--- a/generated.xlsx
+++ b/generated.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Part Number Mapping Information</t>
   </si>
@@ -174,9 +174,6 @@
     <t>1938483</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
     <t>BOM1-AOC</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>BO2 LINE</t>
+  </si>
+  <si>
+    <t>1938483XKEKE</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2377,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2388,7 +2388,7 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2399,15 +2399,54 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1"/>
+      <c r="O1"/>
+    </row>
+    <row r="2">
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="10">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/generated.xlsx
+++ b/generated.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Part Number Mapping Information</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>BOM1 LINE</t>
+  </si>
+  <si>
+    <t>VOM1 NAME</t>
+  </si>
+  <si>
+    <t>VOM1 DESC</t>
+  </si>
+  <si>
+    <t>VOM2 NAME</t>
+  </si>
+  <si>
+    <t>VOM2 DESC</t>
   </si>
   <si>
     <t>BOM2-A</t>
@@ -2377,7 +2389,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2404,49 +2416,59 @@
       <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="N1"/>
-      <c r="O1"/>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>42</v>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="12">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/generated.xlsx
+++ b/generated.xlsx
@@ -16,14 +16,13 @@
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="sheet4" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>Part Number Mapping Information</t>
   </si>
@@ -174,31 +173,103 @@
     <t>1938483</t>
   </si>
   <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>primary 1938483</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>A-xxxxxx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DECPSA</t>
+  </si>
+  <si>
+    <t>NATURE</t>
+  </si>
+  <si>
     <t>BOM1-AOC</t>
   </si>
   <si>
     <t>BOM1 LINE</t>
   </si>
   <si>
+    <t>BOM USAGE 1 DESCRIPTION</t>
+  </si>
+  <si>
+    <t>BOM1 BOC</t>
+  </si>
+  <si>
     <t>VOM1 NAME</t>
   </si>
   <si>
     <t>VOM1 DESC</t>
   </si>
   <si>
+    <t>VOM1 PLANT NAME</t>
+  </si>
+  <si>
+    <t>B-00002932919 (3) 	9851416280 02B-00003331120 (2) 	9811223380 02</t>
+  </si>
+  <si>
+    <t>A-00005561-00 19861157580 00</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>VOM2 NAME</t>
   </si>
   <si>
     <t>VOM2 DESC</t>
   </si>
   <si>
+    <t>VOM2 PLANT NAME</t>
+  </si>
+  <si>
     <t>BOM2-A</t>
   </si>
   <si>
     <t>BO2 LINE</t>
   </si>
   <si>
+    <t>BOM2 BOC</t>
+  </si>
+  <si>
     <t>1938483XKEKE</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>primary 1938483XKEKE</t>
+  </si>
+  <si>
+    <t>Mecanique</t>
+  </si>
+  <si>
+    <t>B-xxxxxx</t>
+  </si>
+  <si>
+    <t>NATUREX</t>
+  </si>
+  <si>
+    <t>YYYYYYY 9811223380 02</t>
+  </si>
+  <si>
+    <t>A-0111 00</t>
+  </si>
+  <si>
+    <t>To the left is static</t>
   </si>
 </sst>
 </file>
@@ -206,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -293,8 +364,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="14.0"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +424,16 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -893,7 +978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1091,6 +1176,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1713,7 +1801,9 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
-      <c r="K1" s="72"/>
+      <c r="K1" s="73" t="s">
+        <v>71</v>
+      </c>
       <c r="L1" s="71" t="s">
         <v>14</v>
       </c>
@@ -1800,197 +1890,297 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="52"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="52"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="52"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="52"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="52"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="52"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="52"/>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="P4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="L5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="P6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U6" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U7" t="s">
+        <v>55</v>
+      </c>
+      <c r="V7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="P10" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="59"/>
@@ -2377,99 +2567,57 @@
       <c r="V26" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="49">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:T1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:V6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="U7:U10"/>
+    <mergeCell ref="V7:V10"/>
+    <mergeCell ref="K1:K26"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>